--- a/FlatDatabaseSearch.xlsx
+++ b/FlatDatabaseSearch.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96C779B9-09AF-4C32-A66E-B1703FC7B057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945C044B-BEB9-42CD-8937-6285BAD73269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{92914E04-2B35-44D6-B5C0-CCC8D6A7AAA6}"/>
+    <workbookView xWindow="-17565" yWindow="3480" windowWidth="21600" windowHeight="11235" activeTab="1" xr2:uid="{92914E04-2B35-44D6-B5C0-CCC8D6A7AAA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$5:$F$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -63,13 +89,40 @@
   </si>
   <si>
     <t>Katee</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Quarter Sums</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +130,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000099"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,18 +217,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="10">
+    <cellStyle name="20% - Accent1 2" xfId="9" xr:uid="{0E2116F6-D3D4-4632-AE6D-2BD435DF8299}"/>
+    <cellStyle name="20% - Accent3 2" xfId="2" xr:uid="{087F527F-F73C-450B-AB8C-42F906001B3F}"/>
+    <cellStyle name="Comment" xfId="6" xr:uid="{781BE8D0-44E7-4566-9162-1F1ED76A2EF7}"/>
+    <cellStyle name="Explanatory Text 2" xfId="4" xr:uid="{06ED9D19-CCFD-4232-AD84-079AC345AFF6}"/>
+    <cellStyle name="Heading 1 2" xfId="3" xr:uid="{57930CD3-106C-454C-B7B2-0D0170B55DCE}"/>
+    <cellStyle name="Heading 2 2" xfId="8" xr:uid="{E784485A-B98B-480B-83A4-F094D25CBA0C}"/>
+    <cellStyle name="Heading 3 2" xfId="7" xr:uid="{731AF1AA-ADBC-489B-A176-2BC7749127C6}"/>
+    <cellStyle name="Input 2" xfId="5" xr:uid="{752F54F0-8375-4246-AB4B-73B7A94B9B5F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3EA7B153-1087-42E5-8CAA-D363CD4E7B7E}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <bottom/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <top style="double">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="double">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Biegert Standard" table="0" count="4" xr9:uid="{8F5D3856-556B-4BC5-B07E-3655B7DF55E1}">
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="totalRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+    </tableStyle>
+    <tableStyle name="Biegert Standard A" pivot="0" count="4" xr9:uid="{F1E96AA3-B22D-49FE-A8A4-FCA601010DFF}">
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="totalRow" dxfId="2"/>
+      <tableStyleElement type="firstColumn" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -436,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321C9DBD-F42D-4A7C-B1F8-B8CA2A2AF8BC}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -559,4 +817,327 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1F75C1-F8A6-4FDB-99A0-21074EDE18A6}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" cm="1">
+        <f t="array" ref="B2:M2">DATE(2023,_xlfn.SEQUENCE(1,12,1,1),1)</f>
+        <v>44927</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45017</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45047</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45078</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45108</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45139</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45170</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45200</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45231</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="str" cm="1">
+        <f t="array" ref="A11:A14">A3:A6</f>
+        <v>A</v>
+      </c>
+      <c r="B11" cm="1">
+        <f t="array" ref="B11">SUM($B3:$M3*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(A:A)))</f>
+        <v>6</v>
+      </c>
+      <c r="C11" cm="1">
+        <f t="array" ref="C11">SUM($B3:$M3*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(B:B)))</f>
+        <v>15</v>
+      </c>
+      <c r="D11" cm="1">
+        <f t="array" ref="D11">SUM($B3:$M3*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(C:C)))</f>
+        <v>24</v>
+      </c>
+      <c r="E11" cm="1">
+        <f t="array" ref="E11">SUM($B3:$M3*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(D:D)))</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>B</v>
+      </c>
+      <c r="B12" cm="1">
+        <f t="array" ref="B12">SUM($B4:$M4*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(A:A)))</f>
+        <v>9</v>
+      </c>
+      <c r="C12" cm="1">
+        <f t="array" ref="C12">SUM($B4:$M4*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(B:B)))</f>
+        <v>18</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">SUM($B4:$M4*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(C:C)))</f>
+        <v>27</v>
+      </c>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12">SUM($B4:$M4*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(D:D)))</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>C</v>
+      </c>
+      <c r="B13" cm="1">
+        <f t="array" ref="B13">SUM($B5:$M5*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(A:A)))</f>
+        <v>12</v>
+      </c>
+      <c r="C13" cm="1">
+        <f t="array" ref="C13">SUM($B5:$M5*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(B:B)))</f>
+        <v>21</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13">SUM($B5:$M5*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(C:C)))</f>
+        <v>30</v>
+      </c>
+      <c r="E13" cm="1">
+        <f t="array" ref="E13">SUM($B5:$M5*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(D:D)))</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>D</v>
+      </c>
+      <c r="B14" cm="1">
+        <f t="array" ref="B14">SUM($B6:$M6*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(A:A)))</f>
+        <v>15</v>
+      </c>
+      <c r="C14" cm="1">
+        <f t="array" ref="C14">SUM($B6:$M6*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(B:B)))</f>
+        <v>24</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">SUM($B6:$M6*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(C:C)))</f>
+        <v>33</v>
+      </c>
+      <c r="E14" cm="1">
+        <f t="array" ref="E14">SUM($B6:$M6*(ROUNDUP(MONTH(_xlfn.ANCHORARRAY($B$2))/3,0)=COLUMN(D:D)))</f>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>